--- a/output/comparison/average RMSE.xlsx
+++ b/output/comparison/average RMSE.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
     <t>Skill</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
   <si>
     <t>overall_2022</t>
@@ -435,13 +435,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.267843457109658</v>
+        <v>0.1050680842211134</v>
       </c>
       <c r="C2">
-        <v>0.131099747739323</v>
+        <v>0.1669238020425752</v>
       </c>
       <c r="D2">
-        <v>0.07805883788238797</v>
+        <v>0.2764750779791292</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.2764750779791292</v>
+        <v>0.07805883788238797</v>
       </c>
       <c r="C3">
-        <v>0.1669238020425752</v>
+        <v>0.131099747739323</v>
       </c>
       <c r="D3">
-        <v>0.1050680842211134</v>
+        <v>0.267843457109658</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1205566877591435</v>
+        <v>0.07360952494927242</v>
       </c>
       <c r="C4">
         <v>0.1034831738184759</v>
       </c>
       <c r="D4">
-        <v>0.07360952494927242</v>
+        <v>0.1205566877591435</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.1024707768026408</v>
+        <v>0.118036638521579</v>
       </c>
       <c r="C5">
         <v>0.1011906724215931</v>
       </c>
       <c r="D5">
-        <v>0.118036638521579</v>
+        <v>0.1024707768026408</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1079236356198236</v>
+        <v>0.09454424272908432</v>
       </c>
       <c r="C6">
         <v>0.09375775030727403</v>
       </c>
       <c r="D6">
-        <v>0.09454424272908432</v>
+        <v>0.1079236356198236</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <v>0.07415136437169788</v>
+      </c>
+      <c r="C7">
+        <v>0.09002192055715234</v>
+      </c>
+      <c r="D7">
         <v>0.08789333415658417</v>
-      </c>
-      <c r="C7">
-        <v>0.1047348413927434</v>
-      </c>
-      <c r="D7">
-        <v>0.05979648551464158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <v>0.1182435870128628</v>
+      </c>
+      <c r="C8">
+        <v>0.1141658538367658</v>
+      </c>
+      <c r="D8">
         <v>0.08984444341912709</v>
-      </c>
-      <c r="C8">
-        <v>0.11051299666581</v>
-      </c>
-      <c r="D8">
-        <v>0.1011976164569758</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <v>10</v>
       </c>
       <c r="B9">
+        <v>0.1195147806446487</v>
+      </c>
+      <c r="C9">
+        <v>0.1172200129464642</v>
+      </c>
+      <c r="D9">
         <v>0.1020066394599226</v>
-      </c>
-      <c r="C9">
-        <v>0.1302748590561995</v>
-      </c>
-      <c r="D9">
-        <v>0.1457454236780478</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="B10">
+        <v>0.07716534011472649</v>
+      </c>
+      <c r="C10">
+        <v>0.1137010726276294</v>
+      </c>
+      <c r="D10">
         <v>0.103825614198253</v>
-      </c>
-      <c r="C10">
-        <v>0.1095938190683</v>
-      </c>
-      <c r="D10">
-        <v>0.07538445653760928</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <v>12</v>
       </c>
       <c r="B11">
+        <v>0.10660987156765</v>
+      </c>
+      <c r="C11">
+        <v>0.1096397037696017</v>
+      </c>
+      <c r="D11">
         <v>0.1155524694213501</v>
-      </c>
-      <c r="C11">
-        <v>0.1213653063355253</v>
-      </c>
-      <c r="D11">
-        <v>0.1425313788824334</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -575,13 +575,13 @@
         <v>13</v>
       </c>
       <c r="B12">
+        <v>0.08352627446320537</v>
+      </c>
+      <c r="C12">
+        <v>0.09444454415016094</v>
+      </c>
+      <c r="D12">
         <v>0.09991883744407902</v>
-      </c>
-      <c r="C12">
-        <v>0.08615734579137008</v>
-      </c>
-      <c r="D12">
-        <v>0.08191296439390761</v>
       </c>
     </row>
   </sheetData>
